--- a/exceles/Listas de simio para invierno y no invierno.xlsx
+++ b/exceles/Listas de simio para invierno y no invierno.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\Simio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\Simio\exceles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -366,7 +366,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,6 +376,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -401,6 +407,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="80" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +749,7 @@
       <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D1" s="3"/>
@@ -960,7 +967,7 @@
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
@@ -980,7 +987,7 @@
         <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -991,7 +998,7 @@
         <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
@@ -1001,7 +1008,7 @@
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" t="s">
@@ -1011,7 +1018,7 @@
         <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1022,7 +1029,7 @@
         <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
@@ -1032,7 +1039,7 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" t="s">
@@ -1042,7 +1049,7 @@
         <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1053,7 +1060,7 @@
         <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" t="s">
@@ -1063,7 +1070,7 @@
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" t="s">
@@ -1073,7 +1080,7 @@
         <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1084,7 +1091,7 @@
         <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" t="s">
@@ -1094,7 +1101,7 @@
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" t="s">
@@ -1104,7 +1111,7 @@
         <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1115,7 +1122,7 @@
         <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" t="s">
@@ -1125,7 +1132,7 @@
         <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" t="s">
@@ -1135,7 +1142,7 @@
         <v>27</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1146,7 +1153,7 @@
         <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
@@ -1156,7 +1163,7 @@
         <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" t="s">
@@ -1166,7 +1173,7 @@
         <v>28</v>
       </c>
       <c r="K14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1177,7 +1184,7 @@
         <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" t="s">
@@ -1187,7 +1194,7 @@
         <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" t="s">
@@ -1197,7 +1204,7 @@
         <v>29</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1208,7 +1215,7 @@
         <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
@@ -1218,7 +1225,7 @@
         <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" t="s">
@@ -1228,7 +1235,7 @@
         <v>30</v>
       </c>
       <c r="K16" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1239,7 +1246,7 @@
         <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" t="s">
@@ -1249,7 +1256,7 @@
         <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" t="s">
@@ -1259,7 +1266,7 @@
         <v>31</v>
       </c>
       <c r="K17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1270,7 +1277,7 @@
         <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
@@ -1280,7 +1287,7 @@
         <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" t="s">
@@ -1290,7 +1297,7 @@
         <v>37</v>
       </c>
       <c r="K18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1301,7 +1308,7 @@
         <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
@@ -1311,7 +1318,7 @@
         <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" t="s">
@@ -1321,7 +1328,7 @@
         <v>38</v>
       </c>
       <c r="K19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1332,7 +1339,7 @@
         <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" t="s">
@@ -1342,7 +1349,7 @@
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" t="s">
@@ -1352,7 +1359,7 @@
         <v>39</v>
       </c>
       <c r="K20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1363,7 +1370,7 @@
         <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" t="s">
@@ -1373,7 +1380,7 @@
         <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" t="s">
@@ -1383,7 +1390,7 @@
         <v>40</v>
       </c>
       <c r="K21" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1394,7 +1401,7 @@
         <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" t="s">
@@ -1404,7 +1411,7 @@
         <v>41</v>
       </c>
       <c r="G22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" t="s">
@@ -1414,7 +1421,7 @@
         <v>44</v>
       </c>
       <c r="K22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1425,7 +1432,7 @@
         <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" t="s">
@@ -1435,7 +1442,7 @@
         <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" t="s">
@@ -1445,7 +1452,7 @@
         <v>45</v>
       </c>
       <c r="K23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1456,7 +1463,7 @@
         <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
@@ -1466,7 +1473,7 @@
         <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" t="s">
@@ -1476,7 +1483,7 @@
         <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1487,7 +1494,7 @@
         <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" t="s">
@@ -1497,7 +1504,7 @@
         <v>47</v>
       </c>
       <c r="G25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" t="s">
@@ -1507,7 +1514,7 @@
         <v>51</v>
       </c>
       <c r="K25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1518,7 +1525,7 @@
         <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" t="s">
@@ -1528,7 +1535,7 @@
         <v>48</v>
       </c>
       <c r="G26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" t="s">
@@ -1538,7 +1545,7 @@
         <v>52</v>
       </c>
       <c r="K26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1549,7 +1556,7 @@
         <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" t="s">
@@ -1559,7 +1566,7 @@
         <v>49</v>
       </c>
       <c r="G27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" t="s">
@@ -1569,7 +1576,7 @@
         <v>53</v>
       </c>
       <c r="K27" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1580,7 +1587,7 @@
         <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" t="s">
@@ -1590,7 +1597,7 @@
         <v>50</v>
       </c>
       <c r="G28" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" t="s">
@@ -1600,7 +1607,7 @@
         <v>54</v>
       </c>
       <c r="K28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1610,9 +1617,6 @@
       <c r="B29" s="1">
         <v>96</v>
       </c>
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
       <c r="D29" s="3"/>
       <c r="E29" t="s">
         <v>101</v>
@@ -1620,9 +1624,6 @@
       <c r="F29" s="1">
         <v>55</v>
       </c>
-      <c r="G29" t="s">
-        <v>0</v>
-      </c>
       <c r="H29" s="3"/>
       <c r="I29" t="s">
         <v>1</v>
@@ -1631,7 +1632,7 @@
         <v>59</v>
       </c>
       <c r="K29" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1657,7 +1658,7 @@
         <v>61</v>
       </c>
       <c r="K30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1682,7 +1683,7 @@
         <v>62</v>
       </c>
       <c r="K31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1701,7 +1702,7 @@
         <v>69</v>
       </c>
       <c r="K32" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.25">
@@ -1714,7 +1715,7 @@
         <v>70</v>
       </c>
       <c r="K33" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.25">
@@ -1727,7 +1728,7 @@
         <v>71</v>
       </c>
       <c r="K34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="4:11" x14ac:dyDescent="0.25">
@@ -1740,7 +1741,7 @@
         <v>82</v>
       </c>
       <c r="K35" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.25">
@@ -1752,7 +1753,7 @@
         <v>83</v>
       </c>
       <c r="K36" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.25">
@@ -1764,7 +1765,7 @@
         <v>91</v>
       </c>
       <c r="K37" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="4:11" x14ac:dyDescent="0.25">
@@ -1776,7 +1777,7 @@
         <v>92</v>
       </c>
       <c r="K38" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="4:11" x14ac:dyDescent="0.25">
@@ -1788,7 +1789,7 @@
         <v>99</v>
       </c>
       <c r="K39" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="4:11" x14ac:dyDescent="0.25">
@@ -1800,32 +1801,42 @@
         <v>100</v>
       </c>
       <c r="K40" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="4:11" x14ac:dyDescent="0.25">
       <c r="K41" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="4:11" x14ac:dyDescent="0.25">
       <c r="K42" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="4:11" x14ac:dyDescent="0.25">
       <c r="K43" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="4:11" x14ac:dyDescent="0.25">
       <c r="K44" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="4:11" x14ac:dyDescent="0.25">
       <c r="K45" t="s">
-        <v>93</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K47" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/exceles/Listas de simio para invierno y no invierno.xlsx
+++ b/exceles/Listas de simio para invierno y no invierno.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,6 +361,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -398,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -408,6 +415,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="80" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K47"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,9 +974,6 @@
       <c r="B8" s="1">
         <v>68</v>
       </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
         <v>81</v>
@@ -983,11 +988,9 @@
       <c r="I8" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="1">
-        <v>16</v>
-      </c>
-      <c r="K8" t="s">
-        <v>82</v>
+      <c r="J8" s="1"/>
+      <c r="K8" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -998,7 +1001,7 @@
         <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
@@ -1008,17 +1011,17 @@
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" t="s">
         <v>40</v>
       </c>
       <c r="J9" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1029,7 +1032,7 @@
         <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
@@ -1038,18 +1041,15 @@
       <c r="F10" s="1">
         <v>15</v>
       </c>
-      <c r="G10" t="s">
-        <v>84</v>
-      </c>
       <c r="H10" s="3"/>
       <c r="I10" t="s">
         <v>41</v>
       </c>
       <c r="J10" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1060,7 +1060,7 @@
         <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" t="s">
@@ -1070,17 +1070,17 @@
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" t="s">
         <v>42</v>
       </c>
       <c r="J11" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1091,7 +1091,7 @@
         <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" t="s">
@@ -1101,17 +1101,17 @@
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" t="s">
         <v>43</v>
       </c>
       <c r="J12" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1122,7 +1122,7 @@
         <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" t="s">
@@ -1132,17 +1132,17 @@
         <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" t="s">
         <v>44</v>
       </c>
       <c r="J13" s="1">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1153,7 +1153,7 @@
         <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
@@ -1163,17 +1163,15 @@
         <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="1">
-        <v>28</v>
-      </c>
-      <c r="K14" t="s">
-        <v>43</v>
+      <c r="J14" s="1"/>
+      <c r="K14" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1184,7 +1182,7 @@
         <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" t="s">
@@ -1193,18 +1191,15 @@
       <c r="F15" s="1">
         <v>25</v>
       </c>
-      <c r="G15" t="s">
-        <v>91</v>
-      </c>
       <c r="H15" s="3"/>
       <c r="I15" t="s">
         <v>46</v>
       </c>
       <c r="J15" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K15" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1215,7 +1210,7 @@
         <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
@@ -1225,17 +1220,17 @@
         <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" t="s">
         <v>47</v>
       </c>
       <c r="J16" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K16" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1245,9 +1240,6 @@
       <c r="B17" s="1">
         <v>80</v>
       </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
       <c r="D17" s="3"/>
       <c r="E17" t="s">
         <v>89</v>
@@ -1256,17 +1248,17 @@
         <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" t="s">
         <v>48</v>
       </c>
       <c r="J17" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1277,7 +1269,7 @@
         <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
@@ -1287,17 +1279,17 @@
         <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" t="s">
         <v>49</v>
       </c>
       <c r="J18" s="1">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1308,7 +1300,7 @@
         <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
@@ -1318,17 +1310,17 @@
         <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" t="s">
         <v>50</v>
       </c>
       <c r="J19" s="1">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1339,7 +1331,7 @@
         <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" t="s">
@@ -1349,17 +1341,17 @@
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" t="s">
         <v>51</v>
       </c>
       <c r="J20" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1370,7 +1362,7 @@
         <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" t="s">
@@ -1380,17 +1372,17 @@
         <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" t="s">
         <v>52</v>
       </c>
       <c r="J21" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1401,7 +1393,7 @@
         <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" t="s">
@@ -1411,17 +1403,17 @@
         <v>41</v>
       </c>
       <c r="G22" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" t="s">
         <v>53</v>
       </c>
       <c r="J22" s="1">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1432,7 +1424,7 @@
         <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" t="s">
@@ -1442,17 +1434,17 @@
         <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" t="s">
         <v>54</v>
       </c>
       <c r="J23" s="1">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1463,7 +1455,7 @@
         <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
@@ -1473,17 +1465,17 @@
         <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" t="s">
         <v>55</v>
       </c>
       <c r="J24" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1494,7 +1486,7 @@
         <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" t="s">
@@ -1504,17 +1496,17 @@
         <v>47</v>
       </c>
       <c r="G25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" t="s">
         <v>56</v>
       </c>
       <c r="J25" s="1">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1525,7 +1517,7 @@
         <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" t="s">
@@ -1535,17 +1527,17 @@
         <v>48</v>
       </c>
       <c r="G26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" t="s">
         <v>57</v>
       </c>
       <c r="J26" s="1">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1556,7 +1548,7 @@
         <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" t="s">
@@ -1566,17 +1558,17 @@
         <v>49</v>
       </c>
       <c r="G27" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" t="s">
         <v>58</v>
       </c>
       <c r="J27" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1587,7 +1579,7 @@
         <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" t="s">
@@ -1597,17 +1589,17 @@
         <v>50</v>
       </c>
       <c r="G28" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" t="s">
         <v>59</v>
       </c>
       <c r="J28" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1617,6 +1609,9 @@
       <c r="B29" s="1">
         <v>96</v>
       </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" t="s">
         <v>101</v>
@@ -1624,15 +1619,18 @@
       <c r="F29" s="1">
         <v>55</v>
       </c>
+      <c r="G29" t="s">
+        <v>101</v>
+      </c>
       <c r="H29" s="3"/>
       <c r="I29" t="s">
         <v>1</v>
       </c>
       <c r="J29" s="1">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1642,6 +1640,9 @@
       <c r="B30" s="1">
         <v>97</v>
       </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" t="s">
         <v>102</v>
@@ -1649,16 +1650,18 @@
       <c r="F30" s="1">
         <v>56</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" t="s">
+        <v>102</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" t="s">
         <v>60</v>
       </c>
       <c r="J30" s="1">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1668,6 +1671,9 @@
       <c r="B31" s="1">
         <v>98</v>
       </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" t="s">
         <v>103</v>
@@ -1675,15 +1681,18 @@
       <c r="F31" s="1">
         <v>57</v>
       </c>
+      <c r="G31" t="s">
+        <v>103</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" t="s">
         <v>61</v>
       </c>
       <c r="J31" s="1">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K31" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1694,15 +1703,18 @@
       <c r="F32" s="1">
         <v>58</v>
       </c>
+      <c r="G32" t="s">
+        <v>0</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" t="s">
         <v>9</v>
       </c>
       <c r="J32" s="1">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.25">
@@ -1712,23 +1724,22 @@
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K33" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D34" s="3"/>
+      <c r="G34" s="1"/>
       <c r="H34" s="3"/>
       <c r="I34" t="s">
         <v>62</v>
       </c>
-      <c r="J34" s="1">
-        <v>71</v>
-      </c>
-      <c r="K34" t="s">
-        <v>60</v>
+      <c r="J34" s="1"/>
+      <c r="K34" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="4:11" x14ac:dyDescent="0.25">
@@ -1738,10 +1749,10 @@
         <v>66</v>
       </c>
       <c r="J35" s="1">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="K35" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.25">
@@ -1750,10 +1761,10 @@
         <v>67</v>
       </c>
       <c r="J36" s="1">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="K36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.25">
@@ -1762,10 +1773,10 @@
         <v>69</v>
       </c>
       <c r="J37" s="1">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="K37" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="4:11" x14ac:dyDescent="0.25">
@@ -1773,11 +1784,9 @@
       <c r="I38" t="s">
         <v>70</v>
       </c>
-      <c r="J38" s="1">
-        <v>92</v>
-      </c>
-      <c r="K38" t="s">
-        <v>10</v>
+      <c r="J38" s="1"/>
+      <c r="K38" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="4:11" x14ac:dyDescent="0.25">
@@ -1786,10 +1795,10 @@
         <v>71</v>
       </c>
       <c r="J39" s="1">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="K39" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="4:11" x14ac:dyDescent="0.25">
@@ -1798,44 +1807,41 @@
         <v>72</v>
       </c>
       <c r="J40" s="1">
+        <v>83</v>
+      </c>
+      <c r="K40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J41" s="1">
+        <v>91</v>
+      </c>
+      <c r="K41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J42" s="1">
+        <v>92</v>
+      </c>
+      <c r="K42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J43" s="1">
+        <v>99</v>
+      </c>
+      <c r="K43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J44" s="1">
         <v>100</v>
       </c>
-      <c r="K40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="K41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="K42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="K43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
       <c r="K44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="K45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="K46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="K47" t="s">
         <v>72</v>
       </c>
     </row>
